--- a/infrastructure/Percent difference between the forecasted total generation available and the forecasted peak demand in the following year/DemandandEnergy2020.xlsx
+++ b/infrastructure/Percent difference between the forecasted total generation available and the forecasted peak demand in the following year/DemandandEnergy2020.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Resource Adequacy\DE\2021\2021_02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert\jupyter\texas_2036\indicators\infrastructure\Percent difference between the forecasted total generation available and the forecasted peak demand in the following year\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC72ADC-1E29-4B2C-BA9B-167DC81D77D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="15" windowWidth="15120" windowHeight="9285"/>
+    <workbookView minimized="1" xWindow="2505" yWindow="2505" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="1" r:id="rId1"/>
@@ -1136,7 +1137,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mmm\ d\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="#,##0.00%"/>
@@ -1560,8 +1561,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1569,8 +1570,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1596,7 +1597,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1629,11 +1630,9 @@
               <a:rPr lang="en-US"/>
               <a:t>Energy by Fuel for 2020</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1758,6 +1757,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-611D-4F56-ACEE-8E4B74AFC25A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1874,6 +1878,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-611D-4F56-ACEE-8E4B74AFC25A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1990,6 +1999,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-611D-4F56-ACEE-8E4B74AFC25A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2106,6 +2120,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-611D-4F56-ACEE-8E4B74AFC25A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -2222,6 +2241,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-611D-4F56-ACEE-8E4B74AFC25A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -2338,6 +2362,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-611D-4F56-ACEE-8E4B74AFC25A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -2454,6 +2483,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-611D-4F56-ACEE-8E4B74AFC25A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -2570,6 +2604,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-611D-4F56-ACEE-8E4B74AFC25A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -2686,6 +2725,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-611D-4F56-ACEE-8E4B74AFC25A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
@@ -2802,6 +2846,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-611D-4F56-ACEE-8E4B74AFC25A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2897,11 +2946,9 @@
                   <a:rPr lang="en-US"/>
                   <a:t>GWh</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
@@ -2943,7 +2990,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2987,7 +3033,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3020,11 +3066,9 @@
               <a:rPr lang="en-US"/>
               <a:t>Actual Energy for 2019 and 2020</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3149,6 +3193,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3C25-4E92-BD32-AEAA1212C2F2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3265,6 +3314,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3C25-4E92-BD32-AEAA1212C2F2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3305,11 +3359,9 @@
                   <a:rPr lang="en-US"/>
                   <a:t> </a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3386,11 +3438,9 @@
                   <a:rPr lang="en-US"/>
                   <a:t>GWh</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
@@ -3432,7 +3482,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3476,7 +3525,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3509,11 +3558,9 @@
               <a:rPr lang="en-US"/>
               <a:t>Actual Energy and Forecasted Energy for 2020</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3638,6 +3685,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CD8D-42BD-A527-01F485C07011}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3754,6 +3806,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CD8D-42BD-A527-01F485C07011}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3794,11 +3851,9 @@
                   <a:rPr lang="en-US"/>
                   <a:t> </a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3875,11 +3930,9 @@
                   <a:rPr lang="en-US"/>
                   <a:t>GWh</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
@@ -3921,7 +3974,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3965,7 +4017,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3998,11 +4050,9 @@
               <a:rPr lang="en-US"/>
               <a:t>Actual Peak Demands for 2019 and 2020</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4135,6 +4185,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E3B6-4181-9195-4ED6CFFA04AE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4260,6 +4315,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E3B6-4181-9195-4ED6CFFA04AE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4301,11 +4361,9 @@
                   <a:rPr lang="en-US"/>
                   <a:t> </a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4382,11 +4440,9 @@
                   <a:rPr lang="en-US"/>
                   <a:t>MW</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
@@ -4428,7 +4484,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4472,7 +4527,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4505,11 +4560,9 @@
               <a:rPr lang="en-US"/>
               <a:t>Actual Peak Demands and Forecasted Peak Demands for 2020</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4642,6 +4695,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F523-4C78-95A4-A84B875A1185}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4767,6 +4825,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F523-4C78-95A4-A84B875A1185}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4808,11 +4871,9 @@
                   <a:rPr lang="en-US"/>
                   <a:t> </a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4889,11 +4950,9 @@
                   <a:rPr lang="en-US"/>
                   <a:t>MW</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
@@ -4935,7 +4994,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4990,7 +5048,13 @@
     <xdr:ext cx="1905000" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Ercot_2016.png"/>
+        <xdr:cNvPr id="2" name="Ercot_2016.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5032,7 +5096,13 @@
     <xdr:ext cx="1905000" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Ercot_2016.png"/>
+        <xdr:cNvPr id="2" name="Ercot_2016.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5074,7 +5144,13 @@
     <xdr:ext cx="1905000" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Ercot_2016.png"/>
+        <xdr:cNvPr id="2" name="Ercot_2016.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5116,7 +5192,13 @@
     <xdr:ext cx="1905000" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Ercot_2016.png"/>
+        <xdr:cNvPr id="2" name="Ercot_2016.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5158,7 +5240,13 @@
     <xdr:ext cx="1905000" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Ercot_2016.png"/>
+        <xdr:cNvPr id="2" name="Ercot_2016.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5200,7 +5288,13 @@
     <xdr:ext cx="1905000" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Ercot_2016.png"/>
+        <xdr:cNvPr id="2" name="Ercot_2016.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5242,7 +5336,13 @@
     <xdr:ext cx="1905000" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Ercot_2016.png"/>
+        <xdr:cNvPr id="2" name="Ercot_2016.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5279,7 +5379,13 @@
     <xdr:ext cx="10277475" cy="3390900"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="chart1.xml"/>
+        <xdr:cNvPr id="3" name="chart1.xml">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5309,7 +5415,13 @@
     <xdr:ext cx="1905000" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Ercot_2016.png"/>
+        <xdr:cNvPr id="2" name="Ercot_2016.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5346,7 +5458,13 @@
     <xdr:ext cx="11420475" cy="4848225"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="chart2.xml"/>
+        <xdr:cNvPr id="3" name="chart2.xml">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5371,7 +5489,13 @@
     <xdr:ext cx="11420475" cy="4848225"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="chart3.xml"/>
+        <xdr:cNvPr id="4" name="chart3.xml">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5401,7 +5525,13 @@
     <xdr:ext cx="1905000" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Ercot_2016.png"/>
+        <xdr:cNvPr id="2" name="Ercot_2016.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5438,7 +5568,13 @@
     <xdr:ext cx="11420475" cy="4848225"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="chart4.xml"/>
+        <xdr:cNvPr id="3" name="chart4.xml">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5463,7 +5599,13 @@
     <xdr:ext cx="11420475" cy="4848225"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="chart5.xml"/>
+        <xdr:cNvPr id="4" name="chart5.xml">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5557,6 +5699,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5592,6 +5751,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5764,10 +5940,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -5876,25 +6052,25 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2:B3" location="TOC_1" display="Tab"/>
-    <hyperlink ref="A4:B4" location="TOC_3" display="Demand"/>
-    <hyperlink ref="A5:B5" location="TOC_4" display="Energy"/>
-    <hyperlink ref="A6:B6" location="TOC_5" display="Load Zones"/>
-    <hyperlink ref="A7:B7" location="TOC_6" display="Weather Zones"/>
-    <hyperlink ref="A8:B8" location="TOC_7" display="Energy by Fuel Type"/>
-    <hyperlink ref="A9:B9" location="TOC_8" display="Energy by Fuel Chart"/>
-    <hyperlink ref="A10:B10" location="TOC_9" display="Energy Comparisons"/>
-    <hyperlink ref="A11:B11" location="TOC_10" display="Demand Comparisons"/>
+    <hyperlink ref="A2:B3" location="TOC_1" display="Tab" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A4:B4" location="TOC_3" display="Demand" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A5:B5" location="TOC_4" display="Energy" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A6:B6" location="TOC_5" display="Load Zones" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A7:B7" location="TOC_6" display="Weather Zones" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A8:B8" location="TOC_7" display="Energy by Fuel Type" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A9:B9" location="TOC_8" display="Energy by Fuel Chart" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A10:B10" location="TOC_9" display="Energy Comparisons" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A11:B11" location="TOC_10" display="Demand Comparisons" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:A72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection sqref="A1:A6"/>
     </sheetView>
   </sheetViews>
@@ -6123,7 +6299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6276,7 +6452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6429,7 +6605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:A74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6671,7 +6847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6824,7 +7000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6977,7 +7153,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7087,11 +7263,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:N6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1"/>
@@ -8509,7 +8685,7 @@
       <c r="N44" s="62"/>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="66" t="s">
+      <c r="A45" s="63" t="s">
         <v>156</v>
       </c>
       <c r="B45" s="62"/>
@@ -8527,7 +8703,7 @@
       <c r="N45" s="62"/>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="66" t="s">
+      <c r="A46" s="63" t="s">
         <v>157</v>
       </c>
       <c r="B46" s="62"/>
@@ -8546,6 +8722,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:N6"/>
+    <mergeCell ref="A7:N7"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="A10:N10"/>
+    <mergeCell ref="A26:N26"/>
     <mergeCell ref="A44:N44"/>
     <mergeCell ref="A45:N45"/>
     <mergeCell ref="A46:N46"/>
@@ -8554,11 +8735,6 @@
     <mergeCell ref="A36:N36"/>
     <mergeCell ref="A37:N37"/>
     <mergeCell ref="A38:N38"/>
-    <mergeCell ref="A1:N6"/>
-    <mergeCell ref="A7:N7"/>
-    <mergeCell ref="A9:N9"/>
-    <mergeCell ref="A10:N10"/>
-    <mergeCell ref="A26:N26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8566,7 +8742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9624,7 +9800,7 @@
       <c r="N35" s="62"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="66" t="s">
+      <c r="A36" s="63" t="s">
         <v>156</v>
       </c>
       <c r="B36" s="62"/>
@@ -9659,6 +9835,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:N6"/>
+    <mergeCell ref="A7:N7"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="A10:N10"/>
+    <mergeCell ref="A24:N24"/>
     <mergeCell ref="A35:N35"/>
     <mergeCell ref="A36:N36"/>
     <mergeCell ref="A37:N37"/>
@@ -9667,11 +9848,6 @@
     <mergeCell ref="A30:N30"/>
     <mergeCell ref="A31:N31"/>
     <mergeCell ref="A32:N32"/>
-    <mergeCell ref="A1:N6"/>
-    <mergeCell ref="A7:N7"/>
-    <mergeCell ref="A9:N9"/>
-    <mergeCell ref="A10:N10"/>
-    <mergeCell ref="A24:N24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9679,7 +9855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9784,7 +9960,7 @@
       <c r="M6" s="62"/>
     </row>
     <row r="7" spans="1:13" ht="24" customHeight="1">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="66" t="s">
         <v>172</v>
       </c>
       <c r="B7" s="62"/>
@@ -11409,7 +11585,7 @@
       <c r="M54" s="62"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="66" t="s">
+      <c r="A55" s="63" t="s">
         <v>156</v>
       </c>
       <c r="B55" s="62"/>
@@ -11426,7 +11602,7 @@
       <c r="M55" s="62"/>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="66" t="s">
+      <c r="A56" s="63" t="s">
         <v>157</v>
       </c>
       <c r="B56" s="62"/>
@@ -11444,21 +11620,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:M6"/>
+    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="A9:M9"/>
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="A11:M11"/>
+    <mergeCell ref="A12:M12"/>
+    <mergeCell ref="A22:M22"/>
+    <mergeCell ref="A23:M23"/>
+    <mergeCell ref="A24:M24"/>
+    <mergeCell ref="A42:M42"/>
     <mergeCell ref="A43:M43"/>
     <mergeCell ref="A44:M44"/>
     <mergeCell ref="A54:M54"/>
     <mergeCell ref="A55:M55"/>
     <mergeCell ref="A56:M56"/>
-    <mergeCell ref="A12:M12"/>
-    <mergeCell ref="A22:M22"/>
-    <mergeCell ref="A23:M23"/>
-    <mergeCell ref="A24:M24"/>
-    <mergeCell ref="A42:M42"/>
-    <mergeCell ref="A1:M6"/>
-    <mergeCell ref="A7:M7"/>
-    <mergeCell ref="A9:M9"/>
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="A11:M11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11466,7 +11642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11571,7 +11747,7 @@
       <c r="M6" s="62"/>
     </row>
     <row r="7" spans="1:13" ht="24" customHeight="1">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="66" t="s">
         <v>263</v>
       </c>
       <c r="B7" s="62"/>
@@ -13196,7 +13372,7 @@
       <c r="M54" s="62"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="66" t="s">
+      <c r="A55" s="63" t="s">
         <v>156</v>
       </c>
       <c r="B55" s="62"/>
@@ -13213,7 +13389,7 @@
       <c r="M55" s="62"/>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="66" t="s">
+      <c r="A56" s="63" t="s">
         <v>157</v>
       </c>
       <c r="B56" s="62"/>
@@ -13246,22 +13422,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:M6"/>
+    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="A9:M9"/>
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="A11:M11"/>
+    <mergeCell ref="A12:M12"/>
+    <mergeCell ref="A22:M22"/>
+    <mergeCell ref="A23:M23"/>
+    <mergeCell ref="A24:M24"/>
+    <mergeCell ref="A42:M42"/>
     <mergeCell ref="A57:M57"/>
     <mergeCell ref="A43:M43"/>
     <mergeCell ref="A44:M44"/>
     <mergeCell ref="A54:M54"/>
     <mergeCell ref="A55:M55"/>
     <mergeCell ref="A56:M56"/>
-    <mergeCell ref="A12:M12"/>
-    <mergeCell ref="A22:M22"/>
-    <mergeCell ref="A23:M23"/>
-    <mergeCell ref="A24:M24"/>
-    <mergeCell ref="A42:M42"/>
-    <mergeCell ref="A1:M6"/>
-    <mergeCell ref="A7:M7"/>
-    <mergeCell ref="A9:M9"/>
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="A11:M11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13269,7 +13445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13379,7 +13555,7 @@
       <c r="N6" s="62"/>
     </row>
     <row r="7" spans="1:14" ht="24" customHeight="1">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="66" t="s">
         <v>305</v>
       </c>
       <c r="B7" s="62"/>
@@ -14553,7 +14729,7 @@
       <c r="N38" s="62"/>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="66" t="s">
+      <c r="A39" s="63" t="s">
         <v>156</v>
       </c>
       <c r="B39" s="62"/>
@@ -14660,6 +14836,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:N6"/>
+    <mergeCell ref="A7:N7"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="A10:N10"/>
+    <mergeCell ref="A23:N23"/>
     <mergeCell ref="A41:N41"/>
     <mergeCell ref="A42:N42"/>
     <mergeCell ref="A43:N43"/>
@@ -14669,11 +14850,6 @@
     <mergeCell ref="A38:N38"/>
     <mergeCell ref="A39:N39"/>
     <mergeCell ref="A40:N40"/>
-    <mergeCell ref="A1:N6"/>
-    <mergeCell ref="A7:N7"/>
-    <mergeCell ref="A9:N9"/>
-    <mergeCell ref="A10:N10"/>
-    <mergeCell ref="A23:N23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14681,7 +14857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15581,7 +15757,7 @@
       <c r="M41" s="62"/>
     </row>
     <row r="42" spans="1:13" ht="12.75" customHeight="1">
-      <c r="A42" s="66" t="s">
+      <c r="A42" s="63" t="s">
         <v>156</v>
       </c>
       <c r="B42" s="62"/>
@@ -15627,7 +15803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
